--- a/ballots/2013-09 DSTU/QA/recon_fhir_r1_d1_2013sep_20140113.xlsx
+++ b/ballots/2013-09 DSTU/QA/recon_fhir_r1_d1_2013sep_20140113.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="1"/>
+    <workbookView xWindow="8925" yWindow="420" windowWidth="27795" windowHeight="13350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Reconciliation Peer Review" sheetId="2" r:id="rId2"/>
     <sheet name="Specification QA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Reviewer Name</t>
   </si>
@@ -107,6 +102,27 @@
   </si>
   <si>
     <t>Composition (as far as I can tell) does not support having embedded sections; it only allows sections to reference other resources. I believe this needlessly increases the length of feeds and breaks up the logic order of the composition, when there are many cases where the details of the section only makes sense within the context of the composition.</t>
+  </si>
+  <si>
+    <t>Grahame</t>
+  </si>
+  <si>
+    <t>For San Antonio</t>
+  </si>
+  <si>
+    <t>Defer to Future</t>
+  </si>
+  <si>
+    <t>0..* on patient and in most cases. No action because most allow 0..* and that's policy. N..1 is only allowed occasionally</t>
+  </si>
+  <si>
+    <t>Defer to Future (part of CCDA/FHIR alignment work planned for next round)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not part of the ballot, and a very very big change indeed. The net impact on size is minimal. Though you could do contained resources. </t>
+  </si>
+  <si>
+    <t>Looong discussion in the past, and not part of the ballot, and not going to go back on this now. An issue to watch in the future. Note that the extension for this is already defined (http://hl7.org/implement/standards/fhir/general-extensions.html)</t>
   </si>
 </sst>
 </file>
@@ -243,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,7 +294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,23 +574,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="49.7109375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -584,8 +602,11 @@
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -595,8 +616,11 @@
       <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -606,8 +630,11 @@
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -617,8 +644,11 @@
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -628,8 +658,11 @@
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -639,8 +672,11 @@
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -649,6 +685,9 @@
       </c>
       <c r="C7" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
